--- a/data/trans_dic/P16B03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,56%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>25,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>59,32; 95,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>42,49; 92,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>64,63; 95,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>67,16; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>46,67; 93,06</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,8%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>17,7; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>16,61; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 81,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>78,83; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>71,72; 96,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>62,7; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>76,69; 97,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>62,56; 92,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>52,48; 90,07</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,31%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>19,02; 78,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 85,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>62,3; 95,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>87,41; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>82,74; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>52,61; 85,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>81,49; 97,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>68,76; 96,69</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,32%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>31,94; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>20,0; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>27,67; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>56,35; 90,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>63,89; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>52,73; 88,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>59,9; 89,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>67,34; 96,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>54,59; 89,23</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,61%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>54,62; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>32,53; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>77,59; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>76,89; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>71,27; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>81,25; 97,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>76,79; 97,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>73,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,01%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>63,83; 94,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>77,99; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>85,6; 98,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>88,68; 98,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>79,04; 97,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>83,31; 96,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>90,82; 98,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>82,07; 96,96</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,13%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>63,88; 85,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>63,95; 91,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>59,0; 86,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>83,08; 93,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>89,4; 96,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>82,46; 92,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>80,29; 89,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>87,4; 94,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>79,23; 89,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>81,61%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,83; 94,12</t>
+          <t>57,02; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 100</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,99; 100,0</t>
+          <t>44,49; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,6; 98,4</t>
+          <t>80,97; 97,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,68; 98,7</t>
+          <t>78,61; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,04; 97,65</t>
+          <t>54,79; 94,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>83,31; 96,04</t>
+          <t>78,67; 96,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,82; 98,98</t>
+          <t>81,94; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,07; 96,96</t>
+          <t>62,94; 92,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>53,44; 94,9</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91,36; 100</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>90,23; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>77,76; 97,76</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89,91; 100,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>94,22; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>76,36%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80,12%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89,34%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>93,8%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>88,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>91,47%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>85,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>63,88; 85,53</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>63,95; 91,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>59,0; 86,71</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>83,08; 93,03</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>89,4; 96,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>82,46; 92,77</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>80,29; 89,48</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>87,4; 94,47</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>79,23; 89,2</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,32; 95,01</t>
+          <t>59,27; 94,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,49; 92,29</t>
+          <t>43,68; 92,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,63; 95,67</t>
+          <t>64,3; 95,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,16; 100,0</t>
+          <t>62,5; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,67; 93,06</t>
+          <t>48,87; 92,86</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 100,0</t>
+          <t>18,75; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 100,0</t>
+          <t>18,91; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,93</t>
+          <t>0,0; 82,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,83; 100,0</t>
+          <t>76,78; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,72; 96,99</t>
+          <t>72,95; 97,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,7; 100,0</t>
+          <t>62,83; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,69; 97,22</t>
+          <t>75,95; 97,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,56; 92,76</t>
+          <t>66,34; 92,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,48; 90,07</t>
+          <t>49,31; 86,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 78,39</t>
+          <t>19,66; 77,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,23</t>
+          <t>0,0; 84,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 77,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,3; 95,56</t>
+          <t>58,22; 95,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,41; 100,0</t>
+          <t>86,36; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,74; 100,0</t>
+          <t>79,75; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,61; 85,14</t>
+          <t>51,66; 82,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,49; 97,93</t>
+          <t>81,03; 98,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,76; 96,69</t>
+          <t>69,96; 96,69</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,94; 100,0</t>
+          <t>26,05; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,0; 100,0</t>
+          <t>21,37; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,67; 100,0</t>
+          <t>27,65; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,35; 90,97</t>
+          <t>54,54; 91,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,89; 100,0</t>
+          <t>64,65; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,73; 88,1</t>
+          <t>51,83; 90,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,9; 89,7</t>
+          <t>57,32; 89,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,34; 96,64</t>
+          <t>67,57; 96,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,59; 89,23</t>
+          <t>55,33; 89,18</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54,62; 100,0</t>
+          <t>64,89; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,37 +1136,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,53; 100,0</t>
+          <t>43,17; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,59; 100,0</t>
+          <t>77,34; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,89; 100,0</t>
+          <t>73,26; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,27; 100,0</t>
+          <t>74,18; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,25; 97,8</t>
+          <t>81,15; 97,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,79; 97,31</t>
+          <t>74,21; 97,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,69; 100,0</t>
+          <t>73,57; 100,0</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,02; 100,0</t>
+          <t>59,03; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,49; 100,0</t>
+          <t>45,43; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,97; 97,39</t>
+          <t>78,37; 97,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,61; 100,0</t>
+          <t>76,74; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,79; 94,99</t>
+          <t>54,59; 94,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,67; 96,29</t>
+          <t>80,43; 96,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,94; 100,0</t>
+          <t>81,39; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,94; 92,76</t>
+          <t>63,02; 92,98</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,44; 94,9</t>
+          <t>50,69; 95,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1365,7 +1366,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,23; 100,0</t>
+          <t>87,91; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,76; 97,76</t>
+          <t>74,93; 97,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,91; 100,0</t>
+          <t>88,42; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>63,88; 85,53</t>
+          <t>64,84; 85,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,95; 91,04</t>
+          <t>62,68; 91,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,0; 86,71</t>
+          <t>58,62; 87,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,08; 93,03</t>
+          <t>83,38; 93,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,4; 96,58</t>
+          <t>89,09; 96,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,46; 92,77</t>
+          <t>81,96; 92,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,29; 89,48</t>
+          <t>81,3; 89,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>87,4; 94,47</t>
+          <t>87,01; 94,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>79,23; 89,2</t>
+          <t>79,65; 89,34</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas recostituyentes fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2731</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14155</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8755</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16886</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11937</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1518; 2731</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>992; 3967</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>213; 932</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10124; 16194</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7247; 8918</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5049; 10656</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12738; 18927</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8053; 12884</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6104; 11598</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3766</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25266</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29346</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13151</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29033</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33980</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1043; 5562</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1454; 7687</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4887</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20763; 27043</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24267; 32270</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9424; 14998</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24765; 31703</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27168; 38032</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10327; 18103</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6329</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17444</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39463</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26070</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23774</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41628</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27126</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2532; 9948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4132</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3172</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12387; 20322</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34961; 40482</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21510; 26972</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17646; 28135</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36778; 44493</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21734; 30039</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4165</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5344</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16317</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24436</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18459</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21002</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28601</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23802</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1727; 6627</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1132; 5296</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1861; 6731</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11589; 19418</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17786; 27510</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12891; 22482</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15978; 24915</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22167; 31723</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17485; 28185</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10206</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25358</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24945</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18424</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35564</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27074</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24873</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7179; 11063</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2941</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3291; 7624</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21203; 27417</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19789; 27013</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14484; 19527</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31226; 37628</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22231; 29146</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19975; 27151</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10690</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6077</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32300</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26381</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16646</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42990</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>36526</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22722</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7305; 12376</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8244; 10145</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3181; 7001</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27537; 34205</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21772; 28372</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11376; 19787</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38216; 45793</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>31349; 38517</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17544; 25887</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14067</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8748</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>22961</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46336</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37027</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>55084</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36236</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8862; 16616</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6437; 8748</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8677; 10149</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>20977; 22961</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41730; 47469</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23727; 26087</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30302; 39538</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49709; 56217</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>34141; 36236</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31892</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>199826</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>127592</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>206274</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>234830</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>159485</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>44561; 58950</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>27384; 39772</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24900; 37034</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>143551; 160205</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>189782; 205939</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>118725; 134393</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>195832; 216442</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>223382; 243307</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>149214; 167362</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>